--- a/data/trans_dic/IP08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 18,07</t>
+          <t>7,06; 18,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 21,23</t>
+          <t>8,26; 21,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,1</t>
+          <t>1,02; 10,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,97; 26,06</t>
+          <t>8,86; 25,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 15,11</t>
+          <t>4,61; 14,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 20,37</t>
+          <t>8,42; 20,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 14,92</t>
+          <t>3,13; 15,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 27,63</t>
+          <t>4,21; 26,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,48</t>
+          <t>6,67; 14,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,08</t>
+          <t>10,0; 17,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,42</t>
+          <t>2,96; 9,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 23,53</t>
+          <t>9,19; 23,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,56</t>
+          <t>9,08; 13,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,62</t>
+          <t>11,82; 17,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,21</t>
+          <t>6,03; 10,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,3</t>
+          <t>9,42; 16,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,72</t>
+          <t>5,33; 9,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 14,71</t>
+          <t>9,61; 14,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,56</t>
+          <t>4,94; 8,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,98</t>
+          <t>6,7; 11,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,14</t>
+          <t>7,88; 11,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 15,02</t>
+          <t>11,62; 15,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,85</t>
+          <t>5,93; 8,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,84</t>
+          <t>8,47; 12,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 16,8</t>
+          <t>8,78; 17,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,64</t>
+          <t>7,93; 16,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,85</t>
+          <t>3,18; 8,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 16,74</t>
+          <t>7,78; 17,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 14,92</t>
+          <t>6,87; 14,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,35</t>
+          <t>6,04; 13,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 10,59</t>
+          <t>4,19; 10,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,07</t>
+          <t>7,49; 16,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 14,19</t>
+          <t>8,84; 14,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,55</t>
+          <t>8,07; 13,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,24</t>
+          <t>4,38; 8,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 15,19</t>
+          <t>8,67; 15,15</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,45</t>
+          <t>9,95; 13,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,56</t>
+          <t>11,54; 15,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,54</t>
+          <t>5,52; 8,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,38</t>
+          <t>10,28; 15,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,2</t>
+          <t>6,64; 9,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,69</t>
+          <t>9,71; 13,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,53</t>
+          <t>5,32; 8,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,51</t>
+          <t>7,51; 11,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 11,21</t>
+          <t>8,71; 11,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,1</t>
+          <t>11,2; 14,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,03</t>
+          <t>5,85; 7,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,02</t>
+          <t>9,43; 12,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,39%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>4,73; 15,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>8,86; 20,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 15,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 44,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 18,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,14; 20,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 10,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>10,58; 27,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,63; 14,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>9,59; 18,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 10,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>10,38; 30,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 18,67</t>
+          <t>5,43; 9,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 21,46</t>
+          <t>9,72; 14,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,06</t>
+          <t>4,94; 8,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 25,17</t>
+          <t>6,08; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 14,18</t>
+          <t>8,97; 13,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 20,52</t>
+          <t>11,66; 16,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 15,33</t>
+          <t>6,15; 10,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 26,02</t>
+          <t>9,74; 19,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,19</t>
+          <t>7,9; 10,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 17,91</t>
+          <t>11,55; 15,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,82</t>
+          <t>6,02; 8,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 23,1</t>
+          <t>8,57; 13,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>11,68%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,62</t>
+          <t>6,82; 14,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,0</t>
+          <t>6,35; 13,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,12</t>
+          <t>4,3; 10,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,56</t>
+          <t>7,28; 15,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,44</t>
+          <t>8,6; 17,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,88</t>
+          <t>7,94; 16,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,67</t>
+          <t>3,16; 8,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 11,0</t>
+          <t>8,19; 17,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,05</t>
+          <t>8,77; 14,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 15,24</t>
+          <t>7,93; 13,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,76</t>
+          <t>4,4; 8,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,64</t>
+          <t>8,74; 15,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 17,57</t>
+          <t>6,7; 10,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 16,86</t>
+          <t>9,9; 13,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,76</t>
+          <t>5,26; 8,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 17,06</t>
+          <t>7,54; 12,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,66</t>
+          <t>9,56; 13,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 13,16</t>
+          <t>11,74; 15,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,39</t>
+          <t>5,57; 8,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 16,37</t>
+          <t>10,49; 17,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,49</t>
+          <t>8,7; 11,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,51</t>
+          <t>11,29; 14,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,48</t>
+          <t>5,86; 8,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,15</t>
+          <t>9,55; 14,07</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,96%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,65%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>10,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 13,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>11,54; 15,68</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 8,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>10,28; 15,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>6,64; 9,99</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 13,67</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 8,42</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 11,57</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 11,27</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>11,2; 14,12</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 7,99</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 12,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
